--- a/BESS_optimiser/output/Result.xlsx
+++ b/BESS_optimiser/output/Result.xlsx
@@ -41,292 +41,292 @@
     <t>Charge Status</t>
   </si>
   <si>
-    <t>28/01/2021 01:00</t>
-  </si>
-  <si>
-    <t>28/01/2021 01:15</t>
-  </si>
-  <si>
-    <t>28/01/2021 01:30</t>
-  </si>
-  <si>
-    <t>28/01/2021 01:45</t>
-  </si>
-  <si>
-    <t>28/01/2021 02:00</t>
-  </si>
-  <si>
-    <t>28/01/2021 02:15</t>
-  </si>
-  <si>
-    <t>28/01/2021 02:30</t>
-  </si>
-  <si>
-    <t>28/01/2021 02:45</t>
-  </si>
-  <si>
-    <t>28/01/2021 03:00</t>
-  </si>
-  <si>
-    <t>28/01/2021 03:15</t>
-  </si>
-  <si>
-    <t>28/01/2021 03:30</t>
-  </si>
-  <si>
-    <t>28/01/2021 03:45</t>
-  </si>
-  <si>
-    <t>28/01/2021 04:00</t>
-  </si>
-  <si>
-    <t>28/01/2021 04:15</t>
-  </si>
-  <si>
-    <t>28/01/2021 04:30</t>
-  </si>
-  <si>
-    <t>28/01/2021 04:45</t>
-  </si>
-  <si>
-    <t>28/01/2021 05:00</t>
-  </si>
-  <si>
-    <t>28/01/2021 05:15</t>
-  </si>
-  <si>
-    <t>28/01/2021 05:30</t>
-  </si>
-  <si>
-    <t>28/01/2021 05:45</t>
-  </si>
-  <si>
-    <t>28/01/2021 06:00</t>
-  </si>
-  <si>
-    <t>28/01/2021 06:15</t>
-  </si>
-  <si>
-    <t>28/01/2021 06:30</t>
-  </si>
-  <si>
-    <t>28/01/2021 06:45</t>
-  </si>
-  <si>
-    <t>28/01/2021 07:00</t>
-  </si>
-  <si>
-    <t>28/01/2021 07:15</t>
-  </si>
-  <si>
-    <t>28/01/2021 07:30</t>
-  </si>
-  <si>
-    <t>28/01/2021 07:45</t>
-  </si>
-  <si>
-    <t>28/01/2021 08:00</t>
-  </si>
-  <si>
-    <t>28/01/2021 08:15</t>
-  </si>
-  <si>
-    <t>28/01/2021 08:30</t>
-  </si>
-  <si>
-    <t>28/01/2021 08:45</t>
-  </si>
-  <si>
-    <t>28/01/2021 09:00</t>
-  </si>
-  <si>
-    <t>28/01/2021 09:15</t>
-  </si>
-  <si>
-    <t>28/01/2021 09:30</t>
-  </si>
-  <si>
-    <t>28/01/2021 09:45</t>
-  </si>
-  <si>
-    <t>28/01/2021 10:00</t>
-  </si>
-  <si>
-    <t>28/01/2021 10:15</t>
-  </si>
-  <si>
-    <t>28/01/2021 10:30</t>
-  </si>
-  <si>
-    <t>28/01/2021 10:45</t>
-  </si>
-  <si>
-    <t>28/01/2021 11:00</t>
-  </si>
-  <si>
-    <t>28/01/2021 11:15</t>
-  </si>
-  <si>
-    <t>28/01/2021 11:30</t>
-  </si>
-  <si>
-    <t>28/01/2021 11:45</t>
-  </si>
-  <si>
-    <t>28/01/2021 12:00</t>
-  </si>
-  <si>
-    <t>28/01/2021 12:15</t>
-  </si>
-  <si>
-    <t>28/01/2021 12:30</t>
-  </si>
-  <si>
-    <t>28/01/2021 12:45</t>
-  </si>
-  <si>
-    <t>28/01/2021 13:00</t>
-  </si>
-  <si>
-    <t>28/01/2021 13:15</t>
-  </si>
-  <si>
-    <t>28/01/2021 13:30</t>
-  </si>
-  <si>
-    <t>28/01/2021 13:45</t>
-  </si>
-  <si>
-    <t>28/01/2021 14:00</t>
-  </si>
-  <si>
-    <t>28/01/2021 14:15</t>
-  </si>
-  <si>
-    <t>28/01/2021 14:30</t>
-  </si>
-  <si>
-    <t>28/01/2021 14:45</t>
-  </si>
-  <si>
-    <t>28/01/2021 15:00</t>
-  </si>
-  <si>
-    <t>28/01/2021 15:15</t>
-  </si>
-  <si>
-    <t>28/01/2021 15:30</t>
-  </si>
-  <si>
-    <t>28/01/2021 15:45</t>
-  </si>
-  <si>
-    <t>28/01/2021 16:00</t>
-  </si>
-  <si>
-    <t>28/01/2021 16:15</t>
-  </si>
-  <si>
-    <t>28/01/2021 16:30</t>
-  </si>
-  <si>
-    <t>28/01/2021 16:45</t>
-  </si>
-  <si>
-    <t>28/01/2021 17:00</t>
-  </si>
-  <si>
-    <t>28/01/2021 17:15</t>
-  </si>
-  <si>
-    <t>28/01/2021 17:30</t>
-  </si>
-  <si>
-    <t>28/01/2021 17:45</t>
-  </si>
-  <si>
-    <t>28/01/2021 18:00</t>
-  </si>
-  <si>
-    <t>28/01/2021 18:15</t>
-  </si>
-  <si>
-    <t>28/01/2021 18:30</t>
-  </si>
-  <si>
-    <t>28/01/2021 18:45</t>
-  </si>
-  <si>
-    <t>28/01/2021 19:00</t>
-  </si>
-  <si>
-    <t>28/01/2021 19:15</t>
-  </si>
-  <si>
-    <t>28/01/2021 19:30</t>
-  </si>
-  <si>
-    <t>28/01/2021 19:45</t>
-  </si>
-  <si>
-    <t>28/01/2021 20:00</t>
-  </si>
-  <si>
-    <t>28/01/2021 20:15</t>
-  </si>
-  <si>
-    <t>28/01/2021 20:30</t>
-  </si>
-  <si>
-    <t>28/01/2021 20:45</t>
-  </si>
-  <si>
-    <t>28/01/2021 21:00</t>
-  </si>
-  <si>
-    <t>28/01/2021 21:15</t>
-  </si>
-  <si>
-    <t>28/01/2021 21:30</t>
-  </si>
-  <si>
-    <t>28/01/2021 21:45</t>
-  </si>
-  <si>
-    <t>28/01/2021 22:00</t>
-  </si>
-  <si>
-    <t>28/01/2021 22:15</t>
-  </si>
-  <si>
-    <t>28/01/2021 22:30</t>
-  </si>
-  <si>
-    <t>28/01/2021 22:45</t>
-  </si>
-  <si>
-    <t>28/01/2021 23:00</t>
-  </si>
-  <si>
-    <t>28/01/2021 23:15</t>
-  </si>
-  <si>
-    <t>28/01/2021 23:30</t>
-  </si>
-  <si>
-    <t>28/01/2021 23:45</t>
-  </si>
-  <si>
-    <t>29/01/2021 00:00</t>
-  </si>
-  <si>
-    <t>29/01/2021 00:15</t>
-  </si>
-  <si>
-    <t>29/01/2021 00:30</t>
-  </si>
-  <si>
-    <t>29/01/2021 00:45</t>
+    <t>28/01/2024 01:00</t>
+  </si>
+  <si>
+    <t>28/01/2024 01:15</t>
+  </si>
+  <si>
+    <t>28/01/2024 01:30</t>
+  </si>
+  <si>
+    <t>28/01/2024 01:45</t>
+  </si>
+  <si>
+    <t>28/01/2024 02:00</t>
+  </si>
+  <si>
+    <t>28/01/2024 02:15</t>
+  </si>
+  <si>
+    <t>28/01/2024 02:30</t>
+  </si>
+  <si>
+    <t>28/01/2024 02:45</t>
+  </si>
+  <si>
+    <t>28/01/2024 03:00</t>
+  </si>
+  <si>
+    <t>28/01/2024 03:15</t>
+  </si>
+  <si>
+    <t>28/01/2024 03:30</t>
+  </si>
+  <si>
+    <t>28/01/2024 03:45</t>
+  </si>
+  <si>
+    <t>28/01/2024 04:00</t>
+  </si>
+  <si>
+    <t>28/01/2024 04:15</t>
+  </si>
+  <si>
+    <t>28/01/2024 04:30</t>
+  </si>
+  <si>
+    <t>28/01/2024 04:45</t>
+  </si>
+  <si>
+    <t>28/01/2024 05:00</t>
+  </si>
+  <si>
+    <t>28/01/2024 05:15</t>
+  </si>
+  <si>
+    <t>28/01/2024 05:30</t>
+  </si>
+  <si>
+    <t>28/01/2024 05:45</t>
+  </si>
+  <si>
+    <t>28/01/2024 06:00</t>
+  </si>
+  <si>
+    <t>28/01/2024 06:15</t>
+  </si>
+  <si>
+    <t>28/01/2024 06:30</t>
+  </si>
+  <si>
+    <t>28/01/2024 06:45</t>
+  </si>
+  <si>
+    <t>28/01/2024 07:00</t>
+  </si>
+  <si>
+    <t>28/01/2024 07:15</t>
+  </si>
+  <si>
+    <t>28/01/2024 07:30</t>
+  </si>
+  <si>
+    <t>28/01/2024 07:45</t>
+  </si>
+  <si>
+    <t>28/01/2024 08:00</t>
+  </si>
+  <si>
+    <t>28/01/2024 08:15</t>
+  </si>
+  <si>
+    <t>28/01/2024 08:30</t>
+  </si>
+  <si>
+    <t>28/01/2024 08:45</t>
+  </si>
+  <si>
+    <t>28/01/2024 09:00</t>
+  </si>
+  <si>
+    <t>28/01/2024 09:15</t>
+  </si>
+  <si>
+    <t>28/01/2024 09:30</t>
+  </si>
+  <si>
+    <t>28/01/2024 09:45</t>
+  </si>
+  <si>
+    <t>28/01/2024 10:00</t>
+  </si>
+  <si>
+    <t>28/01/2024 10:15</t>
+  </si>
+  <si>
+    <t>28/01/2024 10:30</t>
+  </si>
+  <si>
+    <t>28/01/2024 10:45</t>
+  </si>
+  <si>
+    <t>28/01/2024 11:00</t>
+  </si>
+  <si>
+    <t>28/01/2024 11:15</t>
+  </si>
+  <si>
+    <t>28/01/2024 11:30</t>
+  </si>
+  <si>
+    <t>28/01/2024 11:45</t>
+  </si>
+  <si>
+    <t>28/01/2024 12:00</t>
+  </si>
+  <si>
+    <t>28/01/2024 12:15</t>
+  </si>
+  <si>
+    <t>28/01/2024 12:30</t>
+  </si>
+  <si>
+    <t>28/01/2024 12:45</t>
+  </si>
+  <si>
+    <t>28/01/2024 13:00</t>
+  </si>
+  <si>
+    <t>28/01/2024 13:15</t>
+  </si>
+  <si>
+    <t>28/01/2024 13:30</t>
+  </si>
+  <si>
+    <t>28/01/2024 13:45</t>
+  </si>
+  <si>
+    <t>28/01/2024 14:00</t>
+  </si>
+  <si>
+    <t>28/01/2024 14:15</t>
+  </si>
+  <si>
+    <t>28/01/2024 14:30</t>
+  </si>
+  <si>
+    <t>28/01/2024 14:45</t>
+  </si>
+  <si>
+    <t>28/01/2024 15:00</t>
+  </si>
+  <si>
+    <t>28/01/2024 15:15</t>
+  </si>
+  <si>
+    <t>28/01/2024 15:30</t>
+  </si>
+  <si>
+    <t>28/01/2024 15:45</t>
+  </si>
+  <si>
+    <t>28/01/2024 16:00</t>
+  </si>
+  <si>
+    <t>28/01/2024 16:15</t>
+  </si>
+  <si>
+    <t>28/01/2024 16:30</t>
+  </si>
+  <si>
+    <t>28/01/2024 16:45</t>
+  </si>
+  <si>
+    <t>28/01/2024 17:00</t>
+  </si>
+  <si>
+    <t>28/01/2024 17:15</t>
+  </si>
+  <si>
+    <t>28/01/2024 17:30</t>
+  </si>
+  <si>
+    <t>28/01/2024 17:45</t>
+  </si>
+  <si>
+    <t>28/01/2024 18:00</t>
+  </si>
+  <si>
+    <t>28/01/2024 18:15</t>
+  </si>
+  <si>
+    <t>28/01/2024 18:30</t>
+  </si>
+  <si>
+    <t>28/01/2024 18:45</t>
+  </si>
+  <si>
+    <t>28/01/2024 19:00</t>
+  </si>
+  <si>
+    <t>28/01/2024 19:15</t>
+  </si>
+  <si>
+    <t>28/01/2024 19:30</t>
+  </si>
+  <si>
+    <t>28/01/2024 19:45</t>
+  </si>
+  <si>
+    <t>28/01/2024 20:00</t>
+  </si>
+  <si>
+    <t>28/01/2024 20:15</t>
+  </si>
+  <si>
+    <t>28/01/2024 20:30</t>
+  </si>
+  <si>
+    <t>28/01/2024 20:45</t>
+  </si>
+  <si>
+    <t>28/01/2024 21:00</t>
+  </si>
+  <si>
+    <t>28/01/2024 21:15</t>
+  </si>
+  <si>
+    <t>28/01/2024 21:30</t>
+  </si>
+  <si>
+    <t>28/01/2024 21:45</t>
+  </si>
+  <si>
+    <t>28/01/2024 22:00</t>
+  </si>
+  <si>
+    <t>28/01/2024 22:15</t>
+  </si>
+  <si>
+    <t>28/01/2024 22:30</t>
+  </si>
+  <si>
+    <t>28/01/2024 22:45</t>
+  </si>
+  <si>
+    <t>28/01/2024 23:00</t>
+  </si>
+  <si>
+    <t>28/01/2024 23:15</t>
+  </si>
+  <si>
+    <t>28/01/2024 23:30</t>
+  </si>
+  <si>
+    <t>28/01/2024 23:45</t>
+  </si>
+  <si>
+    <t>29/01/2024 00:00</t>
+  </si>
+  <si>
+    <t>29/01/2024 00:15</t>
+  </si>
+  <si>
+    <t>29/01/2024 00:30</t>
+  </si>
+  <si>
+    <t>29/01/2024 00:45</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>182010.97</v>
+        <v>75372.50999999999</v>
       </c>
     </row>
   </sheetData>
@@ -741,7 +741,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>10044.75</v>
+        <v>6792.5</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>9963.5</v>
+        <v>6854</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>9902.25</v>
+        <v>6782</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>9930</v>
+        <v>6803.25</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>9898</v>
+        <v>6732.25</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>9837.5</v>
+        <v>6733.5</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>9849</v>
+        <v>6687.25</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>10011.5</v>
+        <v>6721</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -925,22 +925,22 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>11680.9474</v>
+        <v>6677</v>
       </c>
       <c r="C10">
-        <v>-1578.9474</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-1578.9474</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5938</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -948,22 +948,22 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>12248.5</v>
+        <v>6737</v>
       </c>
       <c r="C11">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7125</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -971,22 +971,22 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>12271.5</v>
+        <v>6673</v>
       </c>
       <c r="C12">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8312</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -994,22 +994,22 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>12395</v>
+        <v>6767.5</v>
       </c>
       <c r="C13">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1017,7 +1017,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>10538.25</v>
+        <v>6789.75</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>10605</v>
+        <v>6722.25</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>10768</v>
+        <v>6720.5</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>10946.75</v>
+        <v>6672.75</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1109,19 +1109,19 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>11207</v>
+        <v>6632</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F18">
-        <v>0.95</v>
+        <v>0.4947</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>11480</v>
+        <v>4560.75</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F19">
-        <v>0.95</v>
+        <v>0.3632</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1155,19 +1155,19 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>11667.5</v>
+        <v>4551.25</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F20">
-        <v>0.95</v>
+        <v>0.2316</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>12027.25</v>
+        <v>4548.5</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F21">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>12899</v>
+        <v>6433</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1213,10 +1213,10 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1224,10 +1224,10 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>13450</v>
+        <v>6346.25</v>
       </c>
       <c r="C23">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>13796.5</v>
+        <v>6297</v>
       </c>
       <c r="C24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1270,7 +1270,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>14177</v>
+        <v>6347.25</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>14818.5</v>
+        <v>6515.75</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>15027</v>
+        <v>6564</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>15202.25</v>
+        <v>6563</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1362,7 +1362,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>15433.25</v>
+        <v>6481.25</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>13705.25</v>
+        <v>6486.5</v>
       </c>
       <c r="C30">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.8184</v>
+        <v>0.1</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>13782.5</v>
+        <v>6387.5</v>
       </c>
       <c r="C31">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.6868</v>
+        <v>0.1</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1431,19 +1431,19 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>13781</v>
+        <v>6106</v>
       </c>
       <c r="C32">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.5553</v>
+        <v>0.1</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1454,19 +1454,19 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>13814</v>
+        <v>5878.5</v>
       </c>
       <c r="C33">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.4237</v>
+        <v>0.1</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1477,19 +1477,19 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>13667.25</v>
+        <v>5640.25</v>
       </c>
       <c r="C34">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.2921</v>
+        <v>0.1</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1500,19 +1500,19 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>14738.5</v>
+        <v>5154.25</v>
       </c>
       <c r="C35">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.2316</v>
+        <v>0.1</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>15651</v>
+        <v>4744.5</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.2316</v>
+        <v>0.1</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1546,16 +1546,16 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>13637.25</v>
+        <v>4359.5</v>
       </c>
       <c r="C37">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0.1</v>
@@ -1569,7 +1569,7 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>15576</v>
+        <v>3885.75</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>15523.75</v>
+        <v>3470.75</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>15505.25</v>
+        <v>3393.25</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>15533.25</v>
+        <v>3251.25</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>15547.5</v>
+        <v>3051.5</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>15509.25</v>
+        <v>3024.5</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>15563.75</v>
+        <v>2965.25</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>15611.25</v>
+        <v>2860</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>0.1</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1753,22 +1753,22 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>15499</v>
+        <v>4809.5</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.1</v>
+        <v>0.2188</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1776,22 +1776,22 @@
         <v>53</v>
       </c>
       <c r="B47">
-        <v>15518</v>
+        <v>3174.7895</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>-315.7895</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>-315.7895</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.1</v>
+        <v>0.2375</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1799,22 +1799,22 @@
         <v>54</v>
       </c>
       <c r="B48">
-        <v>15431.5</v>
+        <v>4846.25</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0.1</v>
+        <v>0.3562</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1822,22 +1822,22 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>15391.5</v>
+        <v>4884.25</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0.1</v>
+        <v>0.475</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1845,22 +1845,22 @@
         <v>56</v>
       </c>
       <c r="B50">
-        <v>15192</v>
+        <v>4976.75</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.1</v>
+        <v>0.5938</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1868,22 +1868,22 @@
         <v>57</v>
       </c>
       <c r="B51">
-        <v>15124.25</v>
+        <v>5171</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0.1</v>
+        <v>0.7125</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1891,22 +1891,22 @@
         <v>58</v>
       </c>
       <c r="B52">
-        <v>14921.75</v>
+        <v>5103.5</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0.1</v>
+        <v>0.8312</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1914,22 +1914,22 @@
         <v>59</v>
       </c>
       <c r="B53">
-        <v>14827.5</v>
+        <v>5188.25</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1937,7 +1937,7 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <v>14698.5</v>
+        <v>3409.5</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <v>14772</v>
+        <v>3558.75</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <v>14614.5</v>
+        <v>3782.75</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>63</v>
       </c>
       <c r="B57">
-        <v>14662.5</v>
+        <v>4252</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2029,22 +2029,22 @@
         <v>64</v>
       </c>
       <c r="B58">
-        <v>15637.5159</v>
+        <v>4723.75</v>
       </c>
       <c r="C58">
-        <v>-864.2659</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>-864.2659</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.1513</v>
+        <v>0.95</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2052,7 +2052,7 @@
         <v>65</v>
       </c>
       <c r="B59">
-        <v>14876.75</v>
+        <v>5061.75</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.1513</v>
+        <v>0.95</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>66</v>
       </c>
       <c r="B60">
-        <v>14858.5</v>
+        <v>5449.75</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.1513</v>
+        <v>0.95</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>67</v>
       </c>
       <c r="B61">
-        <v>14924</v>
+        <v>5891</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0.1513</v>
+        <v>0.95</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2121,22 +2121,22 @@
         <v>68</v>
       </c>
       <c r="B62">
-        <v>16896.25</v>
+        <v>6418.75</v>
       </c>
       <c r="C62">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.2701</v>
+        <v>0.95</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2144,22 +2144,22 @@
         <v>69</v>
       </c>
       <c r="B63">
-        <v>16955.25</v>
+        <v>6649</v>
       </c>
       <c r="C63">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.3888</v>
+        <v>0.95</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2167,22 +2167,22 @@
         <v>70</v>
       </c>
       <c r="B64">
-        <v>16977.75</v>
+        <v>6799.75</v>
       </c>
       <c r="C64">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0.5076000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2190,22 +2190,22 @@
         <v>71</v>
       </c>
       <c r="B65">
-        <v>17051</v>
+        <v>6866.25</v>
       </c>
       <c r="C65">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.6263</v>
+        <v>0.95</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2213,19 +2213,19 @@
         <v>72</v>
       </c>
       <c r="B66">
-        <v>15191.5</v>
+        <v>5078.75</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F66">
-        <v>0.6263</v>
+        <v>0.8184</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         <v>73</v>
       </c>
       <c r="B67">
-        <v>15429.5</v>
+        <v>5013.75</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F67">
-        <v>0.6263</v>
+        <v>0.6868</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2259,19 +2259,19 @@
         <v>74</v>
       </c>
       <c r="B68">
-        <v>15543</v>
+        <v>4885</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F68">
-        <v>0.6263</v>
+        <v>0.5553</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -2282,19 +2282,19 @@
         <v>75</v>
       </c>
       <c r="B69">
-        <v>15584.5</v>
+        <v>4853.75</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F69">
-        <v>0.6263</v>
+        <v>0.4237</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>76</v>
       </c>
       <c r="B70">
-        <v>13400.5</v>
+        <v>4725.25</v>
       </c>
       <c r="C70">
         <v>2000</v>
@@ -2317,7 +2317,7 @@
         <v>2000</v>
       </c>
       <c r="F70">
-        <v>0.4947</v>
+        <v>0.2921</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>77</v>
       </c>
       <c r="B71">
-        <v>13308.25</v>
+        <v>4498.25</v>
       </c>
       <c r="C71">
         <v>2000</v>
@@ -2340,7 +2340,7 @@
         <v>2000</v>
       </c>
       <c r="F71">
-        <v>0.3632</v>
+        <v>0.1605</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2351,19 +2351,19 @@
         <v>78</v>
       </c>
       <c r="B72">
-        <v>13189.5</v>
+        <v>5384.5</v>
       </c>
       <c r="C72">
-        <v>2000</v>
+        <v>920</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>2000</v>
+        <v>920</v>
       </c>
       <c r="F72">
-        <v>0.2316</v>
+        <v>0.1</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>79</v>
       </c>
       <c r="B73">
-        <v>13006.75</v>
+        <v>6067.25</v>
       </c>
       <c r="C73">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>0.1</v>
@@ -2397,7 +2397,7 @@
         <v>80</v>
       </c>
       <c r="B74">
-        <v>14754.5</v>
+        <v>5902.5</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>81</v>
       </c>
       <c r="B75">
-        <v>14655</v>
+        <v>5786.5</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2443,7 +2443,7 @@
         <v>82</v>
       </c>
       <c r="B76">
-        <v>14480.25</v>
+        <v>5615.25</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>83</v>
       </c>
       <c r="B77">
-        <v>14319</v>
+        <v>5472.75</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2489,7 +2489,7 @@
         <v>84</v>
       </c>
       <c r="B78">
-        <v>14001.75</v>
+        <v>5309.75</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>85</v>
       </c>
       <c r="B79">
-        <v>13858.25</v>
+        <v>5214.25</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0.1</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2535,7 +2535,7 @@
         <v>86</v>
       </c>
       <c r="B80">
-        <v>13631.25</v>
+        <v>5121</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>87</v>
       </c>
       <c r="B81">
-        <v>13459.5</v>
+        <v>5045.25</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>88</v>
       </c>
       <c r="B82">
-        <v>13235.5</v>
+        <v>4870</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2604,7 +2604,7 @@
         <v>89</v>
       </c>
       <c r="B83">
-        <v>13113.75</v>
+        <v>4841</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2627,7 +2627,7 @@
         <v>90</v>
       </c>
       <c r="B84">
-        <v>13069.75</v>
+        <v>4813.25</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2650,7 +2650,7 @@
         <v>91</v>
       </c>
       <c r="B85">
-        <v>12925.5</v>
+        <v>4818.5</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>92</v>
       </c>
       <c r="B86">
-        <v>12984.5</v>
+        <v>5083</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>93</v>
       </c>
       <c r="B87">
-        <v>12905.5</v>
+        <v>4912</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2719,10 +2719,10 @@
         <v>94</v>
       </c>
       <c r="B88">
-        <v>12689</v>
+        <v>4776.5</v>
       </c>
       <c r="C88">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2742,16 +2742,16 @@
         <v>95</v>
       </c>
       <c r="B89">
-        <v>12387.5</v>
+        <v>4667.5</v>
       </c>
       <c r="C89">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>0.1</v>
@@ -2765,7 +2765,7 @@
         <v>96</v>
       </c>
       <c r="B90">
-        <v>11974</v>
+        <v>4601.25</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2788,7 +2788,7 @@
         <v>97</v>
       </c>
       <c r="B91">
-        <v>11667.75</v>
+        <v>4409.25</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2811,7 +2811,7 @@
         <v>98</v>
       </c>
       <c r="B92">
-        <v>11399.75</v>
+        <v>4224.75</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>99</v>
       </c>
       <c r="B93">
-        <v>11192.75</v>
+        <v>4174</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>100</v>
       </c>
       <c r="B94">
-        <v>10926</v>
+        <v>4068</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>101</v>
       </c>
       <c r="B95">
-        <v>10684.25</v>
+        <v>3902.5</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2903,7 +2903,7 @@
         <v>102</v>
       </c>
       <c r="B96">
-        <v>10547.25</v>
+        <v>3757.25</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>103</v>
       </c>
       <c r="B97">
-        <v>10352.5</v>
+        <v>3661.75</v>
       </c>
       <c r="C97">
         <v>0</v>

--- a/BESS_optimiser/output/Result.xlsx
+++ b/BESS_optimiser/output/Result.xlsx
@@ -41,292 +41,292 @@
     <t>Charge Status</t>
   </si>
   <si>
-    <t>28/01/2024 01:00</t>
-  </si>
-  <si>
-    <t>28/01/2024 01:15</t>
-  </si>
-  <si>
-    <t>28/01/2024 01:30</t>
-  </si>
-  <si>
-    <t>28/01/2024 01:45</t>
-  </si>
-  <si>
-    <t>28/01/2024 02:00</t>
-  </si>
-  <si>
-    <t>28/01/2024 02:15</t>
-  </si>
-  <si>
-    <t>28/01/2024 02:30</t>
-  </si>
-  <si>
-    <t>28/01/2024 02:45</t>
-  </si>
-  <si>
-    <t>28/01/2024 03:00</t>
-  </si>
-  <si>
-    <t>28/01/2024 03:15</t>
-  </si>
-  <si>
-    <t>28/01/2024 03:30</t>
-  </si>
-  <si>
-    <t>28/01/2024 03:45</t>
-  </si>
-  <si>
-    <t>28/01/2024 04:00</t>
-  </si>
-  <si>
-    <t>28/01/2024 04:15</t>
-  </si>
-  <si>
-    <t>28/01/2024 04:30</t>
-  </si>
-  <si>
-    <t>28/01/2024 04:45</t>
-  </si>
-  <si>
-    <t>28/01/2024 05:00</t>
-  </si>
-  <si>
-    <t>28/01/2024 05:15</t>
-  </si>
-  <si>
-    <t>28/01/2024 05:30</t>
-  </si>
-  <si>
-    <t>28/01/2024 05:45</t>
-  </si>
-  <si>
-    <t>28/01/2024 06:00</t>
-  </si>
-  <si>
-    <t>28/01/2024 06:15</t>
-  </si>
-  <si>
-    <t>28/01/2024 06:30</t>
-  </si>
-  <si>
-    <t>28/01/2024 06:45</t>
-  </si>
-  <si>
-    <t>28/01/2024 07:00</t>
-  </si>
-  <si>
-    <t>28/01/2024 07:15</t>
-  </si>
-  <si>
-    <t>28/01/2024 07:30</t>
-  </si>
-  <si>
-    <t>28/01/2024 07:45</t>
-  </si>
-  <si>
-    <t>28/01/2024 08:00</t>
-  </si>
-  <si>
-    <t>28/01/2024 08:15</t>
-  </si>
-  <si>
-    <t>28/01/2024 08:30</t>
-  </si>
-  <si>
-    <t>28/01/2024 08:45</t>
-  </si>
-  <si>
-    <t>28/01/2024 09:00</t>
-  </si>
-  <si>
-    <t>28/01/2024 09:15</t>
-  </si>
-  <si>
-    <t>28/01/2024 09:30</t>
-  </si>
-  <si>
-    <t>28/01/2024 09:45</t>
-  </si>
-  <si>
-    <t>28/01/2024 10:00</t>
-  </si>
-  <si>
-    <t>28/01/2024 10:15</t>
-  </si>
-  <si>
-    <t>28/01/2024 10:30</t>
-  </si>
-  <si>
-    <t>28/01/2024 10:45</t>
-  </si>
-  <si>
-    <t>28/01/2024 11:00</t>
-  </si>
-  <si>
-    <t>28/01/2024 11:15</t>
-  </si>
-  <si>
-    <t>28/01/2024 11:30</t>
-  </si>
-  <si>
-    <t>28/01/2024 11:45</t>
-  </si>
-  <si>
-    <t>28/01/2024 12:00</t>
-  </si>
-  <si>
-    <t>28/01/2024 12:15</t>
-  </si>
-  <si>
-    <t>28/01/2024 12:30</t>
-  </si>
-  <si>
-    <t>28/01/2024 12:45</t>
-  </si>
-  <si>
-    <t>28/01/2024 13:00</t>
-  </si>
-  <si>
-    <t>28/01/2024 13:15</t>
-  </si>
-  <si>
-    <t>28/01/2024 13:30</t>
-  </si>
-  <si>
-    <t>28/01/2024 13:45</t>
-  </si>
-  <si>
-    <t>28/01/2024 14:00</t>
-  </si>
-  <si>
-    <t>28/01/2024 14:15</t>
-  </si>
-  <si>
-    <t>28/01/2024 14:30</t>
-  </si>
-  <si>
-    <t>28/01/2024 14:45</t>
-  </si>
-  <si>
-    <t>28/01/2024 15:00</t>
-  </si>
-  <si>
-    <t>28/01/2024 15:15</t>
-  </si>
-  <si>
-    <t>28/01/2024 15:30</t>
-  </si>
-  <si>
-    <t>28/01/2024 15:45</t>
-  </si>
-  <si>
-    <t>28/01/2024 16:00</t>
-  </si>
-  <si>
-    <t>28/01/2024 16:15</t>
-  </si>
-  <si>
-    <t>28/01/2024 16:30</t>
-  </si>
-  <si>
-    <t>28/01/2024 16:45</t>
-  </si>
-  <si>
-    <t>28/01/2024 17:00</t>
-  </si>
-  <si>
-    <t>28/01/2024 17:15</t>
-  </si>
-  <si>
-    <t>28/01/2024 17:30</t>
-  </si>
-  <si>
-    <t>28/01/2024 17:45</t>
-  </si>
-  <si>
-    <t>28/01/2024 18:00</t>
-  </si>
-  <si>
-    <t>28/01/2024 18:15</t>
-  </si>
-  <si>
-    <t>28/01/2024 18:30</t>
-  </si>
-  <si>
-    <t>28/01/2024 18:45</t>
-  </si>
-  <si>
-    <t>28/01/2024 19:00</t>
-  </si>
-  <si>
-    <t>28/01/2024 19:15</t>
-  </si>
-  <si>
-    <t>28/01/2024 19:30</t>
-  </si>
-  <si>
-    <t>28/01/2024 19:45</t>
-  </si>
-  <si>
-    <t>28/01/2024 20:00</t>
-  </si>
-  <si>
-    <t>28/01/2024 20:15</t>
-  </si>
-  <si>
-    <t>28/01/2024 20:30</t>
-  </si>
-  <si>
-    <t>28/01/2024 20:45</t>
-  </si>
-  <si>
-    <t>28/01/2024 21:00</t>
-  </si>
-  <si>
-    <t>28/01/2024 21:15</t>
-  </si>
-  <si>
-    <t>28/01/2024 21:30</t>
-  </si>
-  <si>
-    <t>28/01/2024 21:45</t>
-  </si>
-  <si>
-    <t>28/01/2024 22:00</t>
-  </si>
-  <si>
-    <t>28/01/2024 22:15</t>
-  </si>
-  <si>
-    <t>28/01/2024 22:30</t>
-  </si>
-  <si>
-    <t>28/01/2024 22:45</t>
-  </si>
-  <si>
-    <t>28/01/2024 23:00</t>
-  </si>
-  <si>
-    <t>28/01/2024 23:15</t>
-  </si>
-  <si>
-    <t>28/01/2024 23:30</t>
-  </si>
-  <si>
-    <t>28/01/2024 23:45</t>
-  </si>
-  <si>
-    <t>29/01/2024 00:00</t>
-  </si>
-  <si>
-    <t>29/01/2024 00:15</t>
-  </si>
-  <si>
-    <t>29/01/2024 00:30</t>
-  </si>
-  <si>
-    <t>29/01/2024 00:45</t>
+    <t>28/09/2024 02:00</t>
+  </si>
+  <si>
+    <t>28/09/2024 02:15</t>
+  </si>
+  <si>
+    <t>28/09/2024 02:30</t>
+  </si>
+  <si>
+    <t>28/09/2024 02:45</t>
+  </si>
+  <si>
+    <t>28/09/2024 03:00</t>
+  </si>
+  <si>
+    <t>28/09/2024 03:15</t>
+  </si>
+  <si>
+    <t>28/09/2024 03:30</t>
+  </si>
+  <si>
+    <t>28/09/2024 03:45</t>
+  </si>
+  <si>
+    <t>28/09/2024 04:00</t>
+  </si>
+  <si>
+    <t>28/09/2024 04:15</t>
+  </si>
+  <si>
+    <t>28/09/2024 04:30</t>
+  </si>
+  <si>
+    <t>28/09/2024 04:45</t>
+  </si>
+  <si>
+    <t>28/09/2024 05:00</t>
+  </si>
+  <si>
+    <t>28/09/2024 05:15</t>
+  </si>
+  <si>
+    <t>28/09/2024 05:30</t>
+  </si>
+  <si>
+    <t>28/09/2024 05:45</t>
+  </si>
+  <si>
+    <t>28/09/2024 06:00</t>
+  </si>
+  <si>
+    <t>28/09/2024 06:15</t>
+  </si>
+  <si>
+    <t>28/09/2024 06:30</t>
+  </si>
+  <si>
+    <t>28/09/2024 06:45</t>
+  </si>
+  <si>
+    <t>28/09/2024 07:00</t>
+  </si>
+  <si>
+    <t>28/09/2024 07:15</t>
+  </si>
+  <si>
+    <t>28/09/2024 07:30</t>
+  </si>
+  <si>
+    <t>28/09/2024 07:45</t>
+  </si>
+  <si>
+    <t>28/09/2024 08:00</t>
+  </si>
+  <si>
+    <t>28/09/2024 08:15</t>
+  </si>
+  <si>
+    <t>28/09/2024 08:30</t>
+  </si>
+  <si>
+    <t>28/09/2024 08:45</t>
+  </si>
+  <si>
+    <t>28/09/2024 09:00</t>
+  </si>
+  <si>
+    <t>28/09/2024 09:15</t>
+  </si>
+  <si>
+    <t>28/09/2024 09:30</t>
+  </si>
+  <si>
+    <t>28/09/2024 09:45</t>
+  </si>
+  <si>
+    <t>28/09/2024 10:00</t>
+  </si>
+  <si>
+    <t>28/09/2024 10:15</t>
+  </si>
+  <si>
+    <t>28/09/2024 10:30</t>
+  </si>
+  <si>
+    <t>28/09/2024 10:45</t>
+  </si>
+  <si>
+    <t>28/09/2024 11:00</t>
+  </si>
+  <si>
+    <t>28/09/2024 11:15</t>
+  </si>
+  <si>
+    <t>28/09/2024 11:30</t>
+  </si>
+  <si>
+    <t>28/09/2024 11:45</t>
+  </si>
+  <si>
+    <t>28/09/2024 12:00</t>
+  </si>
+  <si>
+    <t>28/09/2024 12:15</t>
+  </si>
+  <si>
+    <t>28/09/2024 12:30</t>
+  </si>
+  <si>
+    <t>28/09/2024 12:45</t>
+  </si>
+  <si>
+    <t>28/09/2024 13:00</t>
+  </si>
+  <si>
+    <t>28/09/2024 13:15</t>
+  </si>
+  <si>
+    <t>28/09/2024 13:30</t>
+  </si>
+  <si>
+    <t>28/09/2024 13:45</t>
+  </si>
+  <si>
+    <t>28/09/2024 14:00</t>
+  </si>
+  <si>
+    <t>28/09/2024 14:15</t>
+  </si>
+  <si>
+    <t>28/09/2024 14:30</t>
+  </si>
+  <si>
+    <t>28/09/2024 14:45</t>
+  </si>
+  <si>
+    <t>28/09/2024 15:00</t>
+  </si>
+  <si>
+    <t>28/09/2024 15:15</t>
+  </si>
+  <si>
+    <t>28/09/2024 15:30</t>
+  </si>
+  <si>
+    <t>28/09/2024 15:45</t>
+  </si>
+  <si>
+    <t>28/09/2024 16:00</t>
+  </si>
+  <si>
+    <t>28/09/2024 16:15</t>
+  </si>
+  <si>
+    <t>28/09/2024 16:30</t>
+  </si>
+  <si>
+    <t>28/09/2024 16:45</t>
+  </si>
+  <si>
+    <t>28/09/2024 17:00</t>
+  </si>
+  <si>
+    <t>28/09/2024 17:15</t>
+  </si>
+  <si>
+    <t>28/09/2024 17:30</t>
+  </si>
+  <si>
+    <t>28/09/2024 17:45</t>
+  </si>
+  <si>
+    <t>28/09/2024 18:00</t>
+  </si>
+  <si>
+    <t>28/09/2024 18:15</t>
+  </si>
+  <si>
+    <t>28/09/2024 18:30</t>
+  </si>
+  <si>
+    <t>28/09/2024 18:45</t>
+  </si>
+  <si>
+    <t>28/09/2024 19:00</t>
+  </si>
+  <si>
+    <t>28/09/2024 19:15</t>
+  </si>
+  <si>
+    <t>28/09/2024 19:30</t>
+  </si>
+  <si>
+    <t>28/09/2024 19:45</t>
+  </si>
+  <si>
+    <t>28/09/2024 20:00</t>
+  </si>
+  <si>
+    <t>28/09/2024 20:15</t>
+  </si>
+  <si>
+    <t>28/09/2024 20:30</t>
+  </si>
+  <si>
+    <t>28/09/2024 20:45</t>
+  </si>
+  <si>
+    <t>28/09/2024 21:00</t>
+  </si>
+  <si>
+    <t>28/09/2024 21:15</t>
+  </si>
+  <si>
+    <t>28/09/2024 21:30</t>
+  </si>
+  <si>
+    <t>28/09/2024 21:45</t>
+  </si>
+  <si>
+    <t>28/09/2024 22:00</t>
+  </si>
+  <si>
+    <t>28/09/2024 22:15</t>
+  </si>
+  <si>
+    <t>28/09/2024 22:30</t>
+  </si>
+  <si>
+    <t>28/09/2024 22:45</t>
+  </si>
+  <si>
+    <t>28/09/2024 23:00</t>
+  </si>
+  <si>
+    <t>28/09/2024 23:15</t>
+  </si>
+  <si>
+    <t>28/09/2024 23:30</t>
+  </si>
+  <si>
+    <t>28/09/2024 23:45</t>
+  </si>
+  <si>
+    <t>29/09/2024 00:00</t>
+  </si>
+  <si>
+    <t>29/09/2024 00:15</t>
+  </si>
+  <si>
+    <t>29/09/2024 00:30</t>
+  </si>
+  <si>
+    <t>29/09/2024 00:45</t>
+  </si>
+  <si>
+    <t>29/09/2024 01:00</t>
+  </si>
+  <si>
+    <t>29/09/2024 01:15</t>
+  </si>
+  <si>
+    <t>29/09/2024 01:30</t>
+  </si>
+  <si>
+    <t>29/09/2024 01:45</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>75372.50999999999</v>
+        <v>48305.16</v>
       </c>
     </row>
   </sheetData>
@@ -741,7 +741,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>6792.5</v>
+        <v>2048</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>6854</v>
+        <v>2287</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>6782</v>
+        <v>2508.75</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>6803.25</v>
+        <v>2578.25</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -833,22 +833,22 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>6732.25</v>
+        <v>4163.1974</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-1578.9474</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-1578.9474</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.5938</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -856,22 +856,22 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>6733.5</v>
+        <v>4617.25</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.7125</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -879,22 +879,22 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>6687.25</v>
+        <v>4681.25</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.8312</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -902,22 +902,22 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>6721</v>
+        <v>4724.75</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -925,7 +925,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>6677</v>
+        <v>2804</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>6737</v>
+        <v>3014.75</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>6673</v>
+        <v>3241</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>6767.5</v>
+        <v>3358.25</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>6789.75</v>
+        <v>3590.25</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>6722.25</v>
+        <v>3693.25</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>6720.5</v>
+        <v>3755.5</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>6672.75</v>
+        <v>3891</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1109,19 +1109,19 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>6632</v>
+        <v>4048.25</v>
       </c>
       <c r="C18">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4947</v>
+        <v>0.95</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>4560.75</v>
+        <v>4296.75</v>
       </c>
       <c r="C19">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3632</v>
+        <v>0.95</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1155,19 +1155,19 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>4551.25</v>
+        <v>4450.25</v>
       </c>
       <c r="C20">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.2316</v>
+        <v>0.95</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>4548.5</v>
+        <v>4638.75</v>
       </c>
       <c r="C21">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1201,19 +1201,19 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>6433</v>
+        <v>2914.75</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F22">
-        <v>0.1</v>
+        <v>0.8184</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1224,19 +1224,19 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>6346.25</v>
+        <v>4119.25</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="F23">
-        <v>0.1</v>
+        <v>0.7579</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>6297</v>
+        <v>3149</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F24">
-        <v>0.1</v>
+        <v>0.6263</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1270,7 +1270,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>6347.25</v>
+        <v>5430</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.1</v>
+        <v>0.6263</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1293,19 +1293,19 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>6515.75</v>
+        <v>3649.25</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F26">
-        <v>0.1</v>
+        <v>0.4947</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1316,19 +1316,19 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>6564</v>
+        <v>3565.75</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F27">
-        <v>0.1</v>
+        <v>0.3632</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>6563</v>
+        <v>3487.5</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F28">
-        <v>0.1</v>
+        <v>0.2316</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1362,16 +1362,16 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>6481.25</v>
+        <v>3393.75</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F29">
         <v>0.1</v>
@@ -1385,7 +1385,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>6486.5</v>
+        <v>5156.75</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>6387.5</v>
+        <v>4938.75</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1431,7 +1431,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>6106</v>
+        <v>4776.25</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>5878.5</v>
+        <v>4440.75</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>5640.25</v>
+        <v>3802</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>5154.25</v>
+        <v>3296.75</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>4744.5</v>
+        <v>2894.5</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>4359.5</v>
+        <v>2665.5</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>3885.75</v>
+        <v>2333</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>3470.75</v>
+        <v>2005</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>3393.25</v>
+        <v>1921.25</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>3251.25</v>
+        <v>1944.5</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>3051.5</v>
+        <v>1543.5</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>3024.5</v>
+        <v>1225.5</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>2965.25</v>
+        <v>1217.25</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>2860</v>
+        <v>1386.75</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>4809.5</v>
+        <v>3122.75</v>
       </c>
       <c r="C46">
         <v>-2000</v>
@@ -1776,19 +1776,19 @@
         <v>53</v>
       </c>
       <c r="B47">
-        <v>3174.7895</v>
+        <v>2881.25</v>
       </c>
       <c r="C47">
-        <v>-315.7895</v>
+        <v>-2000</v>
       </c>
       <c r="D47">
-        <v>-315.7895</v>
+        <v>-2000</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.2375</v>
+        <v>0.3375</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -1799,7 +1799,7 @@
         <v>54</v>
       </c>
       <c r="B48">
-        <v>4846.25</v>
+        <v>3111.25</v>
       </c>
       <c r="C48">
         <v>-2000</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0.3562</v>
+        <v>0.4563</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -1822,7 +1822,7 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>4884.25</v>
+        <v>3014</v>
       </c>
       <c r="C49">
         <v>-2000</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0.475</v>
+        <v>0.575</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         <v>56</v>
       </c>
       <c r="B50">
-        <v>4976.75</v>
+        <v>3107</v>
       </c>
       <c r="C50">
         <v>-2000</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.5938</v>
+        <v>0.6938</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -1868,7 +1868,7 @@
         <v>57</v>
       </c>
       <c r="B51">
-        <v>5171</v>
+        <v>3293.5</v>
       </c>
       <c r="C51">
         <v>-2000</v>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0.7125</v>
+        <v>0.8125</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -1891,7 +1891,7 @@
         <v>58</v>
       </c>
       <c r="B52">
-        <v>5103.5</v>
+        <v>3309.75</v>
       </c>
       <c r="C52">
         <v>-2000</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0.8312</v>
+        <v>0.9313</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -1914,13 +1914,13 @@
         <v>59</v>
       </c>
       <c r="B53">
-        <v>5188.25</v>
+        <v>1784.0395</v>
       </c>
       <c r="C53">
-        <v>-2000</v>
+        <v>-315.7895</v>
       </c>
       <c r="D53">
-        <v>-2000</v>
+        <v>-315.7895</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <v>3409.5</v>
+        <v>1683.25</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <v>3558.75</v>
+        <v>1569</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <v>3782.75</v>
+        <v>1884.5</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>63</v>
       </c>
       <c r="B57">
-        <v>4252</v>
+        <v>2117.5</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>64</v>
       </c>
       <c r="B58">
-        <v>4723.75</v>
+        <v>2291.75</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>65</v>
       </c>
       <c r="B59">
-        <v>5061.75</v>
+        <v>2392</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>66</v>
       </c>
       <c r="B60">
-        <v>5449.75</v>
+        <v>2689</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>67</v>
       </c>
       <c r="B61">
-        <v>5891</v>
+        <v>3359</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>68</v>
       </c>
       <c r="B62">
-        <v>6418.75</v>
+        <v>4428.75</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>69</v>
       </c>
       <c r="B63">
-        <v>6649</v>
+        <v>5039</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2167,7 +2167,7 @@
         <v>70</v>
       </c>
       <c r="B64">
-        <v>6799.75</v>
+        <v>5535.5</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2190,7 +2190,7 @@
         <v>71</v>
       </c>
       <c r="B65">
-        <v>6866.25</v>
+        <v>6260.25</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2213,19 +2213,19 @@
         <v>72</v>
       </c>
       <c r="B66">
-        <v>5078.75</v>
+        <v>6902.5</v>
       </c>
       <c r="C66">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.8184</v>
+        <v>0.95</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         <v>73</v>
       </c>
       <c r="B67">
-        <v>5013.75</v>
+        <v>7348</v>
       </c>
       <c r="C67">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.6868</v>
+        <v>0.95</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2259,19 +2259,19 @@
         <v>74</v>
       </c>
       <c r="B68">
-        <v>4885</v>
+        <v>7668.5</v>
       </c>
       <c r="C68">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.5553</v>
+        <v>0.95</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -2282,19 +2282,19 @@
         <v>75</v>
       </c>
       <c r="B69">
-        <v>4853.75</v>
+        <v>7832</v>
       </c>
       <c r="C69">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.4237</v>
+        <v>0.95</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>76</v>
       </c>
       <c r="B70">
-        <v>4725.25</v>
+        <v>6032.25</v>
       </c>
       <c r="C70">
         <v>2000</v>
@@ -2317,7 +2317,7 @@
         <v>2000</v>
       </c>
       <c r="F70">
-        <v>0.2921</v>
+        <v>0.8184</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>77</v>
       </c>
       <c r="B71">
-        <v>4498.25</v>
+        <v>6231.25</v>
       </c>
       <c r="C71">
         <v>2000</v>
@@ -2340,7 +2340,7 @@
         <v>2000</v>
       </c>
       <c r="F71">
-        <v>0.1605</v>
+        <v>0.6868</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2351,19 +2351,19 @@
         <v>78</v>
       </c>
       <c r="B72">
-        <v>5384.5</v>
+        <v>6270.25</v>
       </c>
       <c r="C72">
-        <v>920</v>
+        <v>2000</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>920</v>
+        <v>2000</v>
       </c>
       <c r="F72">
-        <v>0.1</v>
+        <v>0.5553</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>79</v>
       </c>
       <c r="B73">
-        <v>6067.25</v>
+        <v>6194.25</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F73">
-        <v>0.1</v>
+        <v>0.4237</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2397,19 +2397,19 @@
         <v>80</v>
       </c>
       <c r="B74">
-        <v>5902.5</v>
+        <v>6043</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F74">
-        <v>0.1</v>
+        <v>0.2921</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>81</v>
       </c>
       <c r="B75">
-        <v>5786.5</v>
+        <v>7874.5</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0.1</v>
+        <v>0.2921</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -2443,19 +2443,19 @@
         <v>82</v>
       </c>
       <c r="B76">
-        <v>5615.25</v>
+        <v>5752</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F76">
-        <v>0.1</v>
+        <v>0.1605</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -2466,16 +2466,16 @@
         <v>83</v>
       </c>
       <c r="B77">
-        <v>5472.75</v>
+        <v>6659.75</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="F77">
         <v>0.1</v>
@@ -2489,7 +2489,7 @@
         <v>84</v>
       </c>
       <c r="B78">
-        <v>5309.75</v>
+        <v>7300.75</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>85</v>
       </c>
       <c r="B79">
-        <v>5214.25</v>
+        <v>7140.5</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>86</v>
       </c>
       <c r="B80">
-        <v>5121</v>
+        <v>7109.5</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>87</v>
       </c>
       <c r="B81">
-        <v>5045.25</v>
+        <v>7022.75</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>88</v>
       </c>
       <c r="B82">
-        <v>4870</v>
+        <v>6995.25</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2604,7 +2604,7 @@
         <v>89</v>
       </c>
       <c r="B83">
-        <v>4841</v>
+        <v>6751</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2627,7 +2627,7 @@
         <v>90</v>
       </c>
       <c r="B84">
-        <v>4813.25</v>
+        <v>6565.5</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2650,7 +2650,7 @@
         <v>91</v>
       </c>
       <c r="B85">
-        <v>4818.5</v>
+        <v>6466</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>92</v>
       </c>
       <c r="B86">
-        <v>5083</v>
+        <v>6313</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>93</v>
       </c>
       <c r="B87">
-        <v>4912</v>
+        <v>6408.25</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>94</v>
       </c>
       <c r="B88">
-        <v>4776.5</v>
+        <v>6429.25</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>95</v>
       </c>
       <c r="B89">
-        <v>4667.5</v>
+        <v>6206.5</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>96</v>
       </c>
       <c r="B90">
-        <v>4601.25</v>
+        <v>5886.25</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2788,7 +2788,7 @@
         <v>97</v>
       </c>
       <c r="B91">
-        <v>4409.25</v>
+        <v>5811</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2811,7 +2811,7 @@
         <v>98</v>
       </c>
       <c r="B92">
-        <v>4224.75</v>
+        <v>5873</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>99</v>
       </c>
       <c r="B93">
-        <v>4174</v>
+        <v>5867</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>100</v>
       </c>
       <c r="B94">
-        <v>4068</v>
+        <v>5877</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>101</v>
       </c>
       <c r="B95">
-        <v>3902.5</v>
+        <v>5807</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2903,7 +2903,7 @@
         <v>102</v>
       </c>
       <c r="B96">
-        <v>3757.25</v>
+        <v>5830.75</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>103</v>
       </c>
       <c r="B97">
-        <v>3661.75</v>
+        <v>5794.5</v>
       </c>
       <c r="C97">
         <v>0</v>
